--- a/biology/Botanique/Mascarin,_jardin_botanique_de_La_Réunion/Mascarin,_jardin_botanique_de_La_Réunion.xlsx
+++ b/biology/Botanique/Mascarin,_jardin_botanique_de_La_Réunion/Mascarin,_jardin_botanique_de_La_Réunion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mascarin,_jardin_botanique_de_La_R%C3%A9union</t>
+          <t>Mascarin,_jardin_botanique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mascarin, jardin botanique de La Réunion situé dans les hauts de Saint-Leu, est un jardin botanique implanté sur l’ancien domaine agricole de la famille de Chateauvieux, au lieu-dit "Les Colimaçons".
 La collectivité départementale devient propriétaire du site en 1987 et délègue sa gestion à l’association Conservatoire Botanique National de Mascarin. Depuis 2014, le département de la Réunion a repris la gestion du jardin et toutes activités liées au public et à la gestion des collections. Cependant, le Conservatoire mène toujours des missions scientifiques sur le domaine. Ainsi, les deux entités travaillent donc en cohérence et complémentarité.
-Aujourd'hui le site est une structure touristique qui propose la découverte du patrimoine naturel de l'île à travers la richesse, la diversité et la fragilité de la flore réunionnaise. En mars 2019, il a obtenu le label Jardin remarquable[1].
+Aujourd'hui le site est une structure touristique qui propose la découverte du patrimoine naturel de l'île à travers la richesse, la diversité et la fragilité de la flore réunionnaise. En mars 2019, il a obtenu le label Jardin remarquable.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mascarin,_jardin_botanique_de_La_R%C3%A9union</t>
+          <t>Mascarin,_jardin_botanique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce domaine faisait partie de la vaste propriété agricole du marquis Joseph Antoine Sosthènes d'Armand de Chateauvieux et de sa descendance achetée en 1857. Trois générations y vécurent. Le marquis, ingénieur agronome de formation, s'installa à La Réunion pour développer l'activité sucrière auprès de Charles Desbassayns à Saint-Gilles les Hauts. Au XIXe siècle, le domaine s'étendait sur 660 hectares à 500m d'altitude. L'activité agricole était fondée sur la canne à sucre, le géranium, des cultures vivrières, du thé ou encore du coton. Il y avait même une production de cidre, d'huile et de bière[2]. Étant croyants, le marquis et sa famille entreprirent l'édification de l’église du Sacré Cœur en 1860 , elle sera achevée en 1863. Le marquis y est enterré[3].
-En 1986, le domaine et les bâtiments très délabrés sont vendus au département de La Réunion par l'arrière petite-fille, Marie-Thérèse de Chateauvieux. La rénovation des bâtiments respecte l'architecture créole traditionnelle. L'inauguration a lieu en 1991[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce domaine faisait partie de la vaste propriété agricole du marquis Joseph Antoine Sosthènes d'Armand de Chateauvieux et de sa descendance achetée en 1857. Trois générations y vécurent. Le marquis, ingénieur agronome de formation, s'installa à La Réunion pour développer l'activité sucrière auprès de Charles Desbassayns à Saint-Gilles les Hauts. Au XIXe siècle, le domaine s'étendait sur 660 hectares à 500m d'altitude. L'activité agricole était fondée sur la canne à sucre, le géranium, des cultures vivrières, du thé ou encore du coton. Il y avait même une production de cidre, d'huile et de bière. Étant croyants, le marquis et sa famille entreprirent l'édification de l’église du Sacré Cœur en 1860 , elle sera achevée en 1863. Le marquis y est enterré.
+En 1986, le domaine et les bâtiments très délabrés sont vendus au département de La Réunion par l'arrière petite-fille, Marie-Thérèse de Chateauvieux. La rénovation des bâtiments respecte l'architecture créole traditionnelle. L'inauguration a lieu en 1991.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mascarin,_jardin_botanique_de_La_R%C3%A9union</t>
+          <t>Mascarin,_jardin_botanique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,21 +559,11 @@
           <t>Le domaine aujourd'hui</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette propriété s'étend sur 9 hectares et est composée du jardin, atout principal du domaine, mais aussi d'autres structures telles que la villa, le restaurant, le bassin et l'ancienne forge qui sont aussi des attraits touristiques. Les locaux du conservatoire ne se visitent pas.
-La villa
-À l'origine, le bâtiment principal servait de poste de vigie : deux tours reliées par une petite passerelle. Ces tours permettaient de surveiller la côte ouest, entre Piton Saint-Leu et Saint-Gilles, et de donner l'alerte à la batterie de Sans-Culottes en cas d'arrivée de bateaux anglais ennemis. Datant de 1794, ces tours sont à la base de la maison d'habitation de la famille. Leur charpente est en bois de fer. De nombreux aménagements pour pouvoir loger celle-ci sont réalisés, jusqu'à obtenir 36 pièces. La forme actuelle de la villa remonte à 1931[2]. Les murs de la maison sont recouverts de bardeaux, autrefois en bois de Tamarin des Hauts, aujourd'hui en bois exotique traité. Le toit est en zinc depuis les années 80, les bardeaux n'ayant pas résisté aux intempéries.
-Au-dessus de l'entrée principale de la villa, on peut observer les armoiries de la famille de Chateauvieux telles que le croissant d'argent signe de conquête, l'échiquier qui représente un champ clos d'un combat non sanglant, puis le taureau symbole de la force et des travaux champêtres ainsi que la couronne et les fleurs de lys qui symbolise la marque de noblesse du marquis[3],[5].
-L'accès se fait par un long escalier bordé de végétaux variés dominés par des araucarias et obéissant à une mise en scène majestueuse.
-Le rez-de-chaussée se visite, on y trouve une boutique, quelques pièces dédiées à des expositions temporaires, une chambre et un bureau d'époque.
-Le restaurant
-Le restaurant actuel nommé Le Vieux pressoir, était l'ancienne cuisine de la famille. Comme la plupart des maisons créoles à La Réunion, les cuisines étaient toujours séparées de la maison principale pour pouvoir l'épargner en cas d'incendie.
-Au niveau des terrasses du restaurant qui étaient anciennement la porcherie et le poulailler se trouve un pressoir à pommes. Grâce à ce pressoir, la famille se mit à fabriquer du cidre avec les pommes qui provenaient d'une des plantations du marquis[3].
-Le bassin
-Derrière la villa, là où la famille garait les charrettes de cannes, ses carrioles, puis ses voitures, un bassin en demi-cercle a été installé depuis, contenant des nénuphars, des papyrus et des carpes koï[3]. 
-L'ancienne forge
-De part et d'autre de l'ancienne forge située face à la villa, il y avait une étable et une écurie, remplacées aujourd'hui par l'exposition permanente Flore Mascarine. L'ancienne fosse à fumier abrite la collection Fougères et Orchidées[3].
 </t>
         </is>
       </c>
@@ -570,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mascarin,_jardin_botanique_de_La_R%C3%A9union</t>
+          <t>Mascarin,_jardin_botanique_de_La_Réunion</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,12 +589,166 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Le domaine aujourd'hui</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La villa</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'origine, le bâtiment principal servait de poste de vigie : deux tours reliées par une petite passerelle. Ces tours permettaient de surveiller la côte ouest, entre Piton Saint-Leu et Saint-Gilles, et de donner l'alerte à la batterie de Sans-Culottes en cas d'arrivée de bateaux anglais ennemis. Datant de 1794, ces tours sont à la base de la maison d'habitation de la famille. Leur charpente est en bois de fer. De nombreux aménagements pour pouvoir loger celle-ci sont réalisés, jusqu'à obtenir 36 pièces. La forme actuelle de la villa remonte à 1931. Les murs de la maison sont recouverts de bardeaux, autrefois en bois de Tamarin des Hauts, aujourd'hui en bois exotique traité. Le toit est en zinc depuis les années 80, les bardeaux n'ayant pas résisté aux intempéries.
+Au-dessus de l'entrée principale de la villa, on peut observer les armoiries de la famille de Chateauvieux telles que le croissant d'argent signe de conquête, l'échiquier qui représente un champ clos d'un combat non sanglant, puis le taureau symbole de la force et des travaux champêtres ainsi que la couronne et les fleurs de lys qui symbolise la marque de noblesse du marquis,.
+L'accès se fait par un long escalier bordé de végétaux variés dominés par des araucarias et obéissant à une mise en scène majestueuse.
+Le rez-de-chaussée se visite, on y trouve une boutique, quelques pièces dédiées à des expositions temporaires, une chambre et un bureau d'époque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mascarin,_jardin_botanique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mascarin,_jardin_botanique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le domaine aujourd'hui</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le restaurant</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le restaurant actuel nommé Le Vieux pressoir, était l'ancienne cuisine de la famille. Comme la plupart des maisons créoles à La Réunion, les cuisines étaient toujours séparées de la maison principale pour pouvoir l'épargner en cas d'incendie.
+Au niveau des terrasses du restaurant qui étaient anciennement la porcherie et le poulailler se trouve un pressoir à pommes. Grâce à ce pressoir, la famille se mit à fabriquer du cidre avec les pommes qui provenaient d'une des plantations du marquis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mascarin,_jardin_botanique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mascarin,_jardin_botanique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Le domaine aujourd'hui</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le bassin</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Derrière la villa, là où la famille garait les charrettes de cannes, ses carrioles, puis ses voitures, un bassin en demi-cercle a été installé depuis, contenant des nénuphars, des papyrus et des carpes koï. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mascarin,_jardin_botanique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mascarin,_jardin_botanique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Le domaine aujourd'hui</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>L'ancienne forge</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De part et d'autre de l'ancienne forge située face à la villa, il y avait une étable et une écurie, remplacées aujourd'hui par l'exposition permanente Flore Mascarine. L'ancienne fosse à fumier abrite la collection Fougères et Orchidées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mascarin,_jardin_botanique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mascarin,_jardin_botanique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Collections botaniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La visite du jardin botanique comprend plusieurs sections mettant en valeur les collections créées au fil des années par le Conservatoire botanique[6].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La visite du jardin botanique comprend plusieurs sections mettant en valeur les collections créées au fil des années par le Conservatoire botanique.
 La collection Caféiers du monde a pour but de préserver la diversité génétique des caféiers, on y recense plus d'une trentaine d'espèce de caféiers sauvages originaires d’Afrique, de Madagascar, des Mascareignes et des Comores.
 Ravine Bambou propose de cheminer sous une haie de bambous exotiques.
 La collection Plantes Lontan retrace les grandes étapes de l’occupation des terres et de la déforestation, avec un parcours chronologique balisé par les principales plantes d'intérêt agricole (coton, tabac, café, épices, canne à sucre, géranium…) introduites à La Réunion. Au sein de cette collection on trouve un boucan, habitat rural traditionnel ainsi qu'un vieil alambic, pour produire de l'essence de géranium rosat.
@@ -604,63 +762,67 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mascarin,_jardin_botanique_de_La_R%C3%A9union</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mascarin,_jardin_botanique_de_La_R%C3%A9union</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mascarin,_jardin_botanique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mascarin,_jardin_botanique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Expositions temporaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Chez les creuseurs de baobabs (01 décembre 2020 -31 janvier 2021) : photographies, carnet de voyage, peintures originales, tirage d'art, présentation du livre et du projet, rencontre avec les auteurs Cyrille Cornu et Griotte, film et ateliers [7].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Chez les creuseurs de baobabs (01 décembre 2020 -31 janvier 2021) : photographies, carnet de voyage, peintures originales, tirage d'art, présentation du livre et du projet, rencontre avec les auteurs Cyrille Cornu et Griotte, film et ateliers .
 Rèv'Endormi, Marilou Mas, février 2021, autour des « endormis ».
-Éclosions, Géraldine Gabin, 2 mars-11 avril, dessins alliant portraits de femmes et graphisme végétal[8].</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mascarin,_jardin_botanique_de_La_R%C3%A9union</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Mascarin,_jardin_botanique_de_La_R%C3%A9union</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Éclosions, Géraldine Gabin, 2 mars-11 avril, dessins alliant portraits de femmes et graphisme végétal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mascarin,_jardin_botanique_de_La_Réunion</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mascarin,_jardin_botanique_de_La_R%C3%A9union</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Accueil du public</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Au travers de visites guidées, il s'agit d'attirer la population locale et les touristes afin de les sensibiliser au patrimoine botanique et culturel de La Réunion.
 Des animations pédagogiques et ludiques sont proposées pour le jeune public scolaire et hors temps scolaire. Des animations artistiques ont lieu également tels que des concerts, des stages de peinture ou de photographie.
